--- a/jyx2/Assets/Mods/JYX2/Configs/Lua小宝商店.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/Lua小宝商店.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B8672C-1F02-48F4-AC63-46D76A166A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17805"/>
+    <workbookView xWindow="0" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -14,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>Jyx2Configs.Jyx2ConfigShop</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -48,18 +51,28 @@
   <si>
     <t>19,1000,250|13,1000,50|28,1,400|119,1,500|51,1,300</t>
   </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuaConfigGen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_number,L_number,L_number[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -70,355 +83,36 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -426,331 +120,48 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1079,48 +490,83 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AX203"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AX204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.3097345132743" customWidth="1"/>
+    <col min="2" max="2" width="67.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:50">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1155,58 +601,26 @@
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
     </row>
-    <row r="4" spans="1:50">
-      <c r="A4">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="C4" t="s">
+        <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-    </row>
-    <row r="5" spans="1:50">
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1241,15 +655,15 @@
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1284,15 +698,15 @@
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1327,15 +741,15 @@
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1370,8 +784,16 @@
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
     </row>
-    <row r="9" spans="3:50">
-      <c r="C9" s="1"/>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1400,27 +822,12 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
     </row>
-    <row r="10" spans="3:50">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1470,7 +877,7 @@
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
     </row>
-    <row r="11" spans="3:50">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1520,7 +927,7 @@
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
     </row>
-    <row r="12" spans="3:50">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1570,7 +977,7 @@
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
     </row>
-    <row r="13" spans="3:50">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1620,7 +1027,7 @@
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
     </row>
-    <row r="14" spans="3:50">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1670,7 +1077,7 @@
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
     </row>
-    <row r="15" spans="3:50">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1720,7 +1127,7 @@
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
     </row>
-    <row r="16" spans="3:50">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1770,7 +1177,7 @@
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
     </row>
-    <row r="17" spans="3:50">
+    <row r="17" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1820,7 +1227,7 @@
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
     </row>
-    <row r="18" spans="3:50">
+    <row r="18" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1870,7 +1277,7 @@
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
     </row>
-    <row r="19" spans="3:50">
+    <row r="19" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1920,7 +1327,7 @@
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
     </row>
-    <row r="20" spans="3:50">
+    <row r="20" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1970,7 +1377,7 @@
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
     </row>
-    <row r="21" spans="3:50">
+    <row r="21" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2020,7 +1427,7 @@
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
     </row>
-    <row r="22" spans="3:50">
+    <row r="22" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2070,7 +1477,7 @@
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
     </row>
-    <row r="23" spans="3:50">
+    <row r="23" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2120,7 +1527,7 @@
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
     </row>
-    <row r="24" spans="3:50">
+    <row r="24" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2170,7 +1577,7 @@
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
     </row>
-    <row r="25" spans="3:50">
+    <row r="25" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2220,7 +1627,7 @@
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
     </row>
-    <row r="26" spans="3:50">
+    <row r="26" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2270,7 +1677,7 @@
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
     </row>
-    <row r="27" spans="3:50">
+    <row r="27" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2320,7 +1727,7 @@
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
     </row>
-    <row r="28" spans="3:50">
+    <row r="28" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2370,7 +1777,7 @@
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
     </row>
-    <row r="29" spans="3:50">
+    <row r="29" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2420,7 +1827,7 @@
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
     </row>
-    <row r="30" spans="3:50">
+    <row r="30" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2470,7 +1877,7 @@
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
     </row>
-    <row r="31" spans="3:50">
+    <row r="31" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2520,7 +1927,7 @@
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
     </row>
-    <row r="32" spans="3:50">
+    <row r="32" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2570,7 +1977,7 @@
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
     </row>
-    <row r="33" spans="3:50">
+    <row r="33" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2620,7 +2027,7 @@
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
     </row>
-    <row r="34" spans="3:50">
+    <row r="34" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2670,7 +2077,7 @@
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
     </row>
-    <row r="35" spans="3:50">
+    <row r="35" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2720,7 +2127,7 @@
       <c r="AW35" s="1"/>
       <c r="AX35" s="1"/>
     </row>
-    <row r="36" spans="3:50">
+    <row r="36" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2770,7 +2177,7 @@
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
     </row>
-    <row r="37" spans="3:50">
+    <row r="37" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2820,7 +2227,7 @@
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
     </row>
-    <row r="38" spans="3:50">
+    <row r="38" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2870,7 +2277,7 @@
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
     </row>
-    <row r="39" spans="3:50">
+    <row r="39" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2920,7 +2327,7 @@
       <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
     </row>
-    <row r="40" spans="3:50">
+    <row r="40" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2970,7 +2377,7 @@
       <c r="AW40" s="1"/>
       <c r="AX40" s="1"/>
     </row>
-    <row r="41" spans="3:50">
+    <row r="41" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3020,7 +2427,7 @@
       <c r="AW41" s="1"/>
       <c r="AX41" s="1"/>
     </row>
-    <row r="42" spans="3:50">
+    <row r="42" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3070,7 +2477,7 @@
       <c r="AW42" s="1"/>
       <c r="AX42" s="1"/>
     </row>
-    <row r="43" spans="3:50">
+    <row r="43" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3120,7 +2527,7 @@
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
     </row>
-    <row r="44" spans="3:50">
+    <row r="44" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3170,7 +2577,7 @@
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
     </row>
-    <row r="45" spans="3:50">
+    <row r="45" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3220,7 +2627,7 @@
       <c r="AW45" s="1"/>
       <c r="AX45" s="1"/>
     </row>
-    <row r="46" spans="3:50">
+    <row r="46" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -3270,7 +2677,7 @@
       <c r="AW46" s="1"/>
       <c r="AX46" s="1"/>
     </row>
-    <row r="47" spans="3:50">
+    <row r="47" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -3320,7 +2727,7 @@
       <c r="AW47" s="1"/>
       <c r="AX47" s="1"/>
     </row>
-    <row r="48" spans="3:50">
+    <row r="48" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3370,7 +2777,7 @@
       <c r="AW48" s="1"/>
       <c r="AX48" s="1"/>
     </row>
-    <row r="49" spans="3:50">
+    <row r="49" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3420,7 +2827,7 @@
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
     </row>
-    <row r="50" spans="3:50">
+    <row r="50" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -3470,7 +2877,7 @@
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
     </row>
-    <row r="51" spans="3:50">
+    <row r="51" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3520,7 +2927,7 @@
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
     </row>
-    <row r="52" spans="3:50">
+    <row r="52" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -3570,7 +2977,7 @@
       <c r="AW52" s="1"/>
       <c r="AX52" s="1"/>
     </row>
-    <row r="53" spans="3:50">
+    <row r="53" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3620,7 +3027,7 @@
       <c r="AW53" s="1"/>
       <c r="AX53" s="1"/>
     </row>
-    <row r="54" spans="3:50">
+    <row r="54" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -3670,7 +3077,7 @@
       <c r="AW54" s="1"/>
       <c r="AX54" s="1"/>
     </row>
-    <row r="55" spans="3:50">
+    <row r="55" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -3720,7 +3127,7 @@
       <c r="AW55" s="1"/>
       <c r="AX55" s="1"/>
     </row>
-    <row r="56" spans="3:50">
+    <row r="56" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -3770,7 +3177,7 @@
       <c r="AW56" s="1"/>
       <c r="AX56" s="1"/>
     </row>
-    <row r="57" spans="3:50">
+    <row r="57" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -3820,7 +3227,7 @@
       <c r="AW57" s="1"/>
       <c r="AX57" s="1"/>
     </row>
-    <row r="58" spans="3:50">
+    <row r="58" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -3870,7 +3277,7 @@
       <c r="AW58" s="1"/>
       <c r="AX58" s="1"/>
     </row>
-    <row r="59" spans="3:50">
+    <row r="59" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3920,7 +3327,7 @@
       <c r="AW59" s="1"/>
       <c r="AX59" s="1"/>
     </row>
-    <row r="60" spans="3:50">
+    <row r="60" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3970,7 +3377,7 @@
       <c r="AW60" s="1"/>
       <c r="AX60" s="1"/>
     </row>
-    <row r="61" spans="3:50">
+    <row r="61" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -4020,7 +3427,7 @@
       <c r="AW61" s="1"/>
       <c r="AX61" s="1"/>
     </row>
-    <row r="62" spans="3:50">
+    <row r="62" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -4070,7 +3477,7 @@
       <c r="AW62" s="1"/>
       <c r="AX62" s="1"/>
     </row>
-    <row r="63" spans="3:50">
+    <row r="63" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -4120,7 +3527,7 @@
       <c r="AW63" s="1"/>
       <c r="AX63" s="1"/>
     </row>
-    <row r="64" spans="3:50">
+    <row r="64" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -4170,7 +3577,7 @@
       <c r="AW64" s="1"/>
       <c r="AX64" s="1"/>
     </row>
-    <row r="65" spans="3:50">
+    <row r="65" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -4220,7 +3627,7 @@
       <c r="AW65" s="1"/>
       <c r="AX65" s="1"/>
     </row>
-    <row r="66" spans="3:50">
+    <row r="66" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -4270,7 +3677,7 @@
       <c r="AW66" s="1"/>
       <c r="AX66" s="1"/>
     </row>
-    <row r="67" spans="3:50">
+    <row r="67" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -4320,7 +3727,7 @@
       <c r="AW67" s="1"/>
       <c r="AX67" s="1"/>
     </row>
-    <row r="68" spans="3:50">
+    <row r="68" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -4370,7 +3777,7 @@
       <c r="AW68" s="1"/>
       <c r="AX68" s="1"/>
     </row>
-    <row r="69" spans="3:50">
+    <row r="69" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -4420,7 +3827,7 @@
       <c r="AW69" s="1"/>
       <c r="AX69" s="1"/>
     </row>
-    <row r="70" spans="3:50">
+    <row r="70" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -4470,7 +3877,7 @@
       <c r="AW70" s="1"/>
       <c r="AX70" s="1"/>
     </row>
-    <row r="71" spans="3:50">
+    <row r="71" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -4520,7 +3927,7 @@
       <c r="AW71" s="1"/>
       <c r="AX71" s="1"/>
     </row>
-    <row r="72" spans="3:50">
+    <row r="72" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -4570,7 +3977,7 @@
       <c r="AW72" s="1"/>
       <c r="AX72" s="1"/>
     </row>
-    <row r="73" spans="3:50">
+    <row r="73" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -4620,7 +4027,7 @@
       <c r="AW73" s="1"/>
       <c r="AX73" s="1"/>
     </row>
-    <row r="74" spans="3:50">
+    <row r="74" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4670,7 +4077,7 @@
       <c r="AW74" s="1"/>
       <c r="AX74" s="1"/>
     </row>
-    <row r="75" spans="3:50">
+    <row r="75" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -4720,7 +4127,7 @@
       <c r="AW75" s="1"/>
       <c r="AX75" s="1"/>
     </row>
-    <row r="76" spans="3:50">
+    <row r="76" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -4770,7 +4177,7 @@
       <c r="AW76" s="1"/>
       <c r="AX76" s="1"/>
     </row>
-    <row r="77" spans="3:50">
+    <row r="77" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4820,7 +4227,7 @@
       <c r="AW77" s="1"/>
       <c r="AX77" s="1"/>
     </row>
-    <row r="78" spans="3:50">
+    <row r="78" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4870,7 +4277,7 @@
       <c r="AW78" s="1"/>
       <c r="AX78" s="1"/>
     </row>
-    <row r="79" spans="3:50">
+    <row r="79" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -4920,7 +4327,7 @@
       <c r="AW79" s="1"/>
       <c r="AX79" s="1"/>
     </row>
-    <row r="80" spans="3:50">
+    <row r="80" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -4970,7 +4377,7 @@
       <c r="AW80" s="1"/>
       <c r="AX80" s="1"/>
     </row>
-    <row r="81" spans="3:50">
+    <row r="81" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -5020,7 +4427,7 @@
       <c r="AW81" s="1"/>
       <c r="AX81" s="1"/>
     </row>
-    <row r="82" spans="3:50">
+    <row r="82" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -5070,7 +4477,7 @@
       <c r="AW82" s="1"/>
       <c r="AX82" s="1"/>
     </row>
-    <row r="83" spans="3:50">
+    <row r="83" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -5120,7 +4527,7 @@
       <c r="AW83" s="1"/>
       <c r="AX83" s="1"/>
     </row>
-    <row r="84" spans="3:50">
+    <row r="84" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -5170,7 +4577,7 @@
       <c r="AW84" s="1"/>
       <c r="AX84" s="1"/>
     </row>
-    <row r="85" spans="3:50">
+    <row r="85" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -5220,7 +4627,7 @@
       <c r="AW85" s="1"/>
       <c r="AX85" s="1"/>
     </row>
-    <row r="86" spans="3:50">
+    <row r="86" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -5270,7 +4677,7 @@
       <c r="AW86" s="1"/>
       <c r="AX86" s="1"/>
     </row>
-    <row r="87" spans="3:50">
+    <row r="87" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -5320,7 +4727,7 @@
       <c r="AW87" s="1"/>
       <c r="AX87" s="1"/>
     </row>
-    <row r="88" spans="3:50">
+    <row r="88" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -5370,7 +4777,7 @@
       <c r="AW88" s="1"/>
       <c r="AX88" s="1"/>
     </row>
-    <row r="89" spans="3:50">
+    <row r="89" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -5420,7 +4827,7 @@
       <c r="AW89" s="1"/>
       <c r="AX89" s="1"/>
     </row>
-    <row r="90" spans="3:50">
+    <row r="90" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -5470,7 +4877,7 @@
       <c r="AW90" s="1"/>
       <c r="AX90" s="1"/>
     </row>
-    <row r="91" spans="3:50">
+    <row r="91" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -5520,7 +4927,7 @@
       <c r="AW91" s="1"/>
       <c r="AX91" s="1"/>
     </row>
-    <row r="92" spans="3:50">
+    <row r="92" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -5570,7 +4977,7 @@
       <c r="AW92" s="1"/>
       <c r="AX92" s="1"/>
     </row>
-    <row r="93" spans="3:50">
+    <row r="93" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -5620,7 +5027,7 @@
       <c r="AW93" s="1"/>
       <c r="AX93" s="1"/>
     </row>
-    <row r="94" spans="3:50">
+    <row r="94" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -5670,7 +5077,7 @@
       <c r="AW94" s="1"/>
       <c r="AX94" s="1"/>
     </row>
-    <row r="95" spans="3:50">
+    <row r="95" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -5720,7 +5127,7 @@
       <c r="AW95" s="1"/>
       <c r="AX95" s="1"/>
     </row>
-    <row r="96" spans="3:50">
+    <row r="96" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -5770,7 +5177,7 @@
       <c r="AW96" s="1"/>
       <c r="AX96" s="1"/>
     </row>
-    <row r="97" spans="3:50">
+    <row r="97" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -5820,7 +5227,7 @@
       <c r="AW97" s="1"/>
       <c r="AX97" s="1"/>
     </row>
-    <row r="98" spans="3:50">
+    <row r="98" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -5870,7 +5277,7 @@
       <c r="AW98" s="1"/>
       <c r="AX98" s="1"/>
     </row>
-    <row r="99" spans="3:50">
+    <row r="99" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -5920,7 +5327,7 @@
       <c r="AW99" s="1"/>
       <c r="AX99" s="1"/>
     </row>
-    <row r="100" spans="3:50">
+    <row r="100" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -5970,7 +5377,7 @@
       <c r="AW100" s="1"/>
       <c r="AX100" s="1"/>
     </row>
-    <row r="101" spans="3:50">
+    <row r="101" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -6020,7 +5427,7 @@
       <c r="AW101" s="1"/>
       <c r="AX101" s="1"/>
     </row>
-    <row r="102" spans="3:50">
+    <row r="102" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -6070,7 +5477,7 @@
       <c r="AW102" s="1"/>
       <c r="AX102" s="1"/>
     </row>
-    <row r="103" spans="3:50">
+    <row r="103" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -6120,7 +5527,7 @@
       <c r="AW103" s="1"/>
       <c r="AX103" s="1"/>
     </row>
-    <row r="104" spans="3:50">
+    <row r="104" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -6170,7 +5577,7 @@
       <c r="AW104" s="1"/>
       <c r="AX104" s="1"/>
     </row>
-    <row r="105" spans="3:50">
+    <row r="105" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -6220,7 +5627,7 @@
       <c r="AW105" s="1"/>
       <c r="AX105" s="1"/>
     </row>
-    <row r="106" spans="3:50">
+    <row r="106" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -6270,7 +5677,7 @@
       <c r="AW106" s="1"/>
       <c r="AX106" s="1"/>
     </row>
-    <row r="107" spans="3:50">
+    <row r="107" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -6320,7 +5727,7 @@
       <c r="AW107" s="1"/>
       <c r="AX107" s="1"/>
     </row>
-    <row r="108" spans="3:50">
+    <row r="108" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -6370,7 +5777,7 @@
       <c r="AW108" s="1"/>
       <c r="AX108" s="1"/>
     </row>
-    <row r="109" spans="3:50">
+    <row r="109" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -6420,7 +5827,7 @@
       <c r="AW109" s="1"/>
       <c r="AX109" s="1"/>
     </row>
-    <row r="110" spans="3:50">
+    <row r="110" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -6470,7 +5877,7 @@
       <c r="AW110" s="1"/>
       <c r="AX110" s="1"/>
     </row>
-    <row r="111" spans="3:50">
+    <row r="111" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -6520,7 +5927,7 @@
       <c r="AW111" s="1"/>
       <c r="AX111" s="1"/>
     </row>
-    <row r="112" spans="3:50">
+    <row r="112" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -6570,7 +5977,7 @@
       <c r="AW112" s="1"/>
       <c r="AX112" s="1"/>
     </row>
-    <row r="113" spans="3:50">
+    <row r="113" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -6620,7 +6027,7 @@
       <c r="AW113" s="1"/>
       <c r="AX113" s="1"/>
     </row>
-    <row r="114" spans="3:50">
+    <row r="114" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -6670,7 +6077,7 @@
       <c r="AW114" s="1"/>
       <c r="AX114" s="1"/>
     </row>
-    <row r="115" spans="3:50">
+    <row r="115" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -6720,7 +6127,7 @@
       <c r="AW115" s="1"/>
       <c r="AX115" s="1"/>
     </row>
-    <row r="116" spans="3:50">
+    <row r="116" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -6770,7 +6177,7 @@
       <c r="AW116" s="1"/>
       <c r="AX116" s="1"/>
     </row>
-    <row r="117" spans="3:50">
+    <row r="117" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -6820,7 +6227,7 @@
       <c r="AW117" s="1"/>
       <c r="AX117" s="1"/>
     </row>
-    <row r="118" spans="3:50">
+    <row r="118" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -6870,7 +6277,7 @@
       <c r="AW118" s="1"/>
       <c r="AX118" s="1"/>
     </row>
-    <row r="119" spans="3:50">
+    <row r="119" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -6920,7 +6327,7 @@
       <c r="AW119" s="1"/>
       <c r="AX119" s="1"/>
     </row>
-    <row r="120" spans="3:50">
+    <row r="120" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -6970,7 +6377,7 @@
       <c r="AW120" s="1"/>
       <c r="AX120" s="1"/>
     </row>
-    <row r="121" spans="3:50">
+    <row r="121" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -7020,7 +6427,7 @@
       <c r="AW121" s="1"/>
       <c r="AX121" s="1"/>
     </row>
-    <row r="122" spans="3:50">
+    <row r="122" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -7070,7 +6477,7 @@
       <c r="AW122" s="1"/>
       <c r="AX122" s="1"/>
     </row>
-    <row r="123" spans="3:50">
+    <row r="123" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -7120,7 +6527,7 @@
       <c r="AW123" s="1"/>
       <c r="AX123" s="1"/>
     </row>
-    <row r="124" spans="3:50">
+    <row r="124" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -7170,7 +6577,7 @@
       <c r="AW124" s="1"/>
       <c r="AX124" s="1"/>
     </row>
-    <row r="125" spans="3:50">
+    <row r="125" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -7220,7 +6627,7 @@
       <c r="AW125" s="1"/>
       <c r="AX125" s="1"/>
     </row>
-    <row r="126" spans="3:50">
+    <row r="126" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -7270,7 +6677,7 @@
       <c r="AW126" s="1"/>
       <c r="AX126" s="1"/>
     </row>
-    <row r="127" spans="3:50">
+    <row r="127" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -7320,7 +6727,7 @@
       <c r="AW127" s="1"/>
       <c r="AX127" s="1"/>
     </row>
-    <row r="128" spans="3:50">
+    <row r="128" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -7370,7 +6777,7 @@
       <c r="AW128" s="1"/>
       <c r="AX128" s="1"/>
     </row>
-    <row r="129" spans="3:50">
+    <row r="129" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -7420,7 +6827,7 @@
       <c r="AW129" s="1"/>
       <c r="AX129" s="1"/>
     </row>
-    <row r="130" spans="3:50">
+    <row r="130" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -7470,7 +6877,7 @@
       <c r="AW130" s="1"/>
       <c r="AX130" s="1"/>
     </row>
-    <row r="131" spans="3:50">
+    <row r="131" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -7520,7 +6927,7 @@
       <c r="AW131" s="1"/>
       <c r="AX131" s="1"/>
     </row>
-    <row r="132" spans="3:50">
+    <row r="132" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -7570,7 +6977,7 @@
       <c r="AW132" s="1"/>
       <c r="AX132" s="1"/>
     </row>
-    <row r="133" spans="3:50">
+    <row r="133" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -7620,7 +7027,7 @@
       <c r="AW133" s="1"/>
       <c r="AX133" s="1"/>
     </row>
-    <row r="134" spans="3:50">
+    <row r="134" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -7670,7 +7077,7 @@
       <c r="AW134" s="1"/>
       <c r="AX134" s="1"/>
     </row>
-    <row r="135" spans="3:50">
+    <row r="135" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -7720,7 +7127,7 @@
       <c r="AW135" s="1"/>
       <c r="AX135" s="1"/>
     </row>
-    <row r="136" spans="3:50">
+    <row r="136" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -7770,7 +7177,7 @@
       <c r="AW136" s="1"/>
       <c r="AX136" s="1"/>
     </row>
-    <row r="137" spans="3:50">
+    <row r="137" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -7820,7 +7227,7 @@
       <c r="AW137" s="1"/>
       <c r="AX137" s="1"/>
     </row>
-    <row r="138" spans="3:50">
+    <row r="138" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -7870,7 +7277,7 @@
       <c r="AW138" s="1"/>
       <c r="AX138" s="1"/>
     </row>
-    <row r="139" spans="3:50">
+    <row r="139" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -7920,7 +7327,7 @@
       <c r="AW139" s="1"/>
       <c r="AX139" s="1"/>
     </row>
-    <row r="140" spans="3:50">
+    <row r="140" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -7970,7 +7377,7 @@
       <c r="AW140" s="1"/>
       <c r="AX140" s="1"/>
     </row>
-    <row r="141" spans="3:50">
+    <row r="141" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -8020,7 +7427,7 @@
       <c r="AW141" s="1"/>
       <c r="AX141" s="1"/>
     </row>
-    <row r="142" spans="3:50">
+    <row r="142" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -8070,7 +7477,7 @@
       <c r="AW142" s="1"/>
       <c r="AX142" s="1"/>
     </row>
-    <row r="143" spans="3:50">
+    <row r="143" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -8120,7 +7527,7 @@
       <c r="AW143" s="1"/>
       <c r="AX143" s="1"/>
     </row>
-    <row r="144" spans="3:50">
+    <row r="144" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -8170,7 +7577,7 @@
       <c r="AW144" s="1"/>
       <c r="AX144" s="1"/>
     </row>
-    <row r="145" spans="3:50">
+    <row r="145" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -8220,7 +7627,7 @@
       <c r="AW145" s="1"/>
       <c r="AX145" s="1"/>
     </row>
-    <row r="146" spans="3:50">
+    <row r="146" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -8270,7 +7677,7 @@
       <c r="AW146" s="1"/>
       <c r="AX146" s="1"/>
     </row>
-    <row r="147" spans="3:50">
+    <row r="147" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -8320,7 +7727,7 @@
       <c r="AW147" s="1"/>
       <c r="AX147" s="1"/>
     </row>
-    <row r="148" spans="3:50">
+    <row r="148" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -8370,7 +7777,7 @@
       <c r="AW148" s="1"/>
       <c r="AX148" s="1"/>
     </row>
-    <row r="149" spans="3:50">
+    <row r="149" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -8420,7 +7827,7 @@
       <c r="AW149" s="1"/>
       <c r="AX149" s="1"/>
     </row>
-    <row r="150" spans="3:50">
+    <row r="150" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -8470,7 +7877,7 @@
       <c r="AW150" s="1"/>
       <c r="AX150" s="1"/>
     </row>
-    <row r="151" spans="3:50">
+    <row r="151" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -8520,7 +7927,7 @@
       <c r="AW151" s="1"/>
       <c r="AX151" s="1"/>
     </row>
-    <row r="152" spans="3:50">
+    <row r="152" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -8570,7 +7977,7 @@
       <c r="AW152" s="1"/>
       <c r="AX152" s="1"/>
     </row>
-    <row r="153" spans="3:50">
+    <row r="153" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -8620,7 +8027,7 @@
       <c r="AW153" s="1"/>
       <c r="AX153" s="1"/>
     </row>
-    <row r="154" spans="3:50">
+    <row r="154" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -8670,7 +8077,7 @@
       <c r="AW154" s="1"/>
       <c r="AX154" s="1"/>
     </row>
-    <row r="155" spans="3:50">
+    <row r="155" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -8720,7 +8127,7 @@
       <c r="AW155" s="1"/>
       <c r="AX155" s="1"/>
     </row>
-    <row r="156" spans="3:50">
+    <row r="156" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -8770,7 +8177,7 @@
       <c r="AW156" s="1"/>
       <c r="AX156" s="1"/>
     </row>
-    <row r="157" spans="3:50">
+    <row r="157" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -8820,7 +8227,7 @@
       <c r="AW157" s="1"/>
       <c r="AX157" s="1"/>
     </row>
-    <row r="158" spans="3:50">
+    <row r="158" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -8870,7 +8277,7 @@
       <c r="AW158" s="1"/>
       <c r="AX158" s="1"/>
     </row>
-    <row r="159" spans="3:50">
+    <row r="159" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -8920,7 +8327,7 @@
       <c r="AW159" s="1"/>
       <c r="AX159" s="1"/>
     </row>
-    <row r="160" spans="3:50">
+    <row r="160" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -8970,7 +8377,7 @@
       <c r="AW160" s="1"/>
       <c r="AX160" s="1"/>
     </row>
-    <row r="161" spans="3:50">
+    <row r="161" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -9020,7 +8427,7 @@
       <c r="AW161" s="1"/>
       <c r="AX161" s="1"/>
     </row>
-    <row r="162" spans="3:50">
+    <row r="162" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -9070,7 +8477,7 @@
       <c r="AW162" s="1"/>
       <c r="AX162" s="1"/>
     </row>
-    <row r="163" spans="3:50">
+    <row r="163" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -9120,7 +8527,7 @@
       <c r="AW163" s="1"/>
       <c r="AX163" s="1"/>
     </row>
-    <row r="164" spans="3:50">
+    <row r="164" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -9170,7 +8577,7 @@
       <c r="AW164" s="1"/>
       <c r="AX164" s="1"/>
     </row>
-    <row r="165" spans="3:50">
+    <row r="165" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -9220,7 +8627,7 @@
       <c r="AW165" s="1"/>
       <c r="AX165" s="1"/>
     </row>
-    <row r="166" spans="3:50">
+    <row r="166" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -9270,7 +8677,7 @@
       <c r="AW166" s="1"/>
       <c r="AX166" s="1"/>
     </row>
-    <row r="167" spans="3:50">
+    <row r="167" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -9320,7 +8727,7 @@
       <c r="AW167" s="1"/>
       <c r="AX167" s="1"/>
     </row>
-    <row r="168" spans="3:50">
+    <row r="168" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -9370,7 +8777,7 @@
       <c r="AW168" s="1"/>
       <c r="AX168" s="1"/>
     </row>
-    <row r="169" spans="3:50">
+    <row r="169" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -9420,7 +8827,7 @@
       <c r="AW169" s="1"/>
       <c r="AX169" s="1"/>
     </row>
-    <row r="170" spans="3:50">
+    <row r="170" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -9470,7 +8877,7 @@
       <c r="AW170" s="1"/>
       <c r="AX170" s="1"/>
     </row>
-    <row r="171" spans="3:50">
+    <row r="171" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -9520,7 +8927,7 @@
       <c r="AW171" s="1"/>
       <c r="AX171" s="1"/>
     </row>
-    <row r="172" spans="3:50">
+    <row r="172" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -9570,7 +8977,7 @@
       <c r="AW172" s="1"/>
       <c r="AX172" s="1"/>
     </row>
-    <row r="173" spans="3:50">
+    <row r="173" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -9620,7 +9027,7 @@
       <c r="AW173" s="1"/>
       <c r="AX173" s="1"/>
     </row>
-    <row r="174" spans="3:50">
+    <row r="174" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -9670,7 +9077,7 @@
       <c r="AW174" s="1"/>
       <c r="AX174" s="1"/>
     </row>
-    <row r="175" spans="3:50">
+    <row r="175" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -9720,7 +9127,7 @@
       <c r="AW175" s="1"/>
       <c r="AX175" s="1"/>
     </row>
-    <row r="176" spans="3:50">
+    <row r="176" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -9770,7 +9177,7 @@
       <c r="AW176" s="1"/>
       <c r="AX176" s="1"/>
     </row>
-    <row r="177" spans="3:50">
+    <row r="177" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -9820,7 +9227,7 @@
       <c r="AW177" s="1"/>
       <c r="AX177" s="1"/>
     </row>
-    <row r="178" spans="3:50">
+    <row r="178" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -9870,7 +9277,7 @@
       <c r="AW178" s="1"/>
       <c r="AX178" s="1"/>
     </row>
-    <row r="179" spans="3:50">
+    <row r="179" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -9920,7 +9327,7 @@
       <c r="AW179" s="1"/>
       <c r="AX179" s="1"/>
     </row>
-    <row r="180" spans="3:50">
+    <row r="180" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -9970,7 +9377,7 @@
       <c r="AW180" s="1"/>
       <c r="AX180" s="1"/>
     </row>
-    <row r="181" spans="3:50">
+    <row r="181" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -10020,7 +9427,7 @@
       <c r="AW181" s="1"/>
       <c r="AX181" s="1"/>
     </row>
-    <row r="182" spans="3:50">
+    <row r="182" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -10070,7 +9477,7 @@
       <c r="AW182" s="1"/>
       <c r="AX182" s="1"/>
     </row>
-    <row r="183" spans="3:50">
+    <row r="183" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -10120,7 +9527,7 @@
       <c r="AW183" s="1"/>
       <c r="AX183" s="1"/>
     </row>
-    <row r="184" spans="3:50">
+    <row r="184" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -10170,7 +9577,7 @@
       <c r="AW184" s="1"/>
       <c r="AX184" s="1"/>
     </row>
-    <row r="185" spans="3:50">
+    <row r="185" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -10220,7 +9627,7 @@
       <c r="AW185" s="1"/>
       <c r="AX185" s="1"/>
     </row>
-    <row r="186" spans="3:50">
+    <row r="186" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -10270,7 +9677,7 @@
       <c r="AW186" s="1"/>
       <c r="AX186" s="1"/>
     </row>
-    <row r="187" spans="3:50">
+    <row r="187" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -10320,7 +9727,7 @@
       <c r="AW187" s="1"/>
       <c r="AX187" s="1"/>
     </row>
-    <row r="188" spans="3:50">
+    <row r="188" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -10370,7 +9777,7 @@
       <c r="AW188" s="1"/>
       <c r="AX188" s="1"/>
     </row>
-    <row r="189" spans="3:50">
+    <row r="189" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -10420,7 +9827,7 @@
       <c r="AW189" s="1"/>
       <c r="AX189" s="1"/>
     </row>
-    <row r="190" spans="3:50">
+    <row r="190" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -10470,7 +9877,7 @@
       <c r="AW190" s="1"/>
       <c r="AX190" s="1"/>
     </row>
-    <row r="191" spans="3:50">
+    <row r="191" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -10520,7 +9927,7 @@
       <c r="AW191" s="1"/>
       <c r="AX191" s="1"/>
     </row>
-    <row r="192" spans="3:50">
+    <row r="192" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -10570,7 +9977,7 @@
       <c r="AW192" s="1"/>
       <c r="AX192" s="1"/>
     </row>
-    <row r="193" spans="3:50">
+    <row r="193" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -10620,7 +10027,7 @@
       <c r="AW193" s="1"/>
       <c r="AX193" s="1"/>
     </row>
-    <row r="194" spans="3:50">
+    <row r="194" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -10670,7 +10077,7 @@
       <c r="AW194" s="1"/>
       <c r="AX194" s="1"/>
     </row>
-    <row r="195" spans="3:50">
+    <row r="195" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -10720,7 +10127,7 @@
       <c r="AW195" s="1"/>
       <c r="AX195" s="1"/>
     </row>
-    <row r="196" spans="3:50">
+    <row r="196" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -10770,7 +10177,7 @@
       <c r="AW196" s="1"/>
       <c r="AX196" s="1"/>
     </row>
-    <row r="197" spans="3:50">
+    <row r="197" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -10820,7 +10227,7 @@
       <c r="AW197" s="1"/>
       <c r="AX197" s="1"/>
     </row>
-    <row r="198" spans="3:50">
+    <row r="198" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -10870,7 +10277,7 @@
       <c r="AW198" s="1"/>
       <c r="AX198" s="1"/>
     </row>
-    <row r="199" spans="3:50">
+    <row r="199" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -10920,7 +10327,7 @@
       <c r="AW199" s="1"/>
       <c r="AX199" s="1"/>
     </row>
-    <row r="200" spans="3:50">
+    <row r="200" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -10970,7 +10377,7 @@
       <c r="AW200" s="1"/>
       <c r="AX200" s="1"/>
     </row>
-    <row r="201" spans="3:50">
+    <row r="201" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -11020,7 +10427,7 @@
       <c r="AW201" s="1"/>
       <c r="AX201" s="1"/>
     </row>
-    <row r="202" spans="3:50">
+    <row r="202" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -11070,7 +10477,7 @@
       <c r="AW202" s="1"/>
       <c r="AX202" s="1"/>
     </row>
-    <row r="203" spans="3:50">
+    <row r="203" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -11120,9 +10527,59 @@
       <c r="AW203" s="1"/>
       <c r="AX203" s="1"/>
     </row>
+    <row r="204" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+      <c r="U204" s="1"/>
+      <c r="V204" s="1"/>
+      <c r="W204" s="1"/>
+      <c r="X204" s="1"/>
+      <c r="Y204" s="1"/>
+      <c r="Z204" s="1"/>
+      <c r="AA204" s="1"/>
+      <c r="AB204" s="1"/>
+      <c r="AC204" s="1"/>
+      <c r="AD204" s="1"/>
+      <c r="AE204" s="1"/>
+      <c r="AF204" s="1"/>
+      <c r="AG204" s="1"/>
+      <c r="AH204" s="1"/>
+      <c r="AI204" s="1"/>
+      <c r="AJ204" s="1"/>
+      <c r="AK204" s="1"/>
+      <c r="AL204" s="1"/>
+      <c r="AM204" s="1"/>
+      <c r="AN204" s="1"/>
+      <c r="AO204" s="1"/>
+      <c r="AP204" s="1"/>
+      <c r="AQ204" s="1"/>
+      <c r="AR204" s="1"/>
+      <c r="AS204" s="1"/>
+      <c r="AT204" s="1"/>
+      <c r="AU204" s="1"/>
+      <c r="AV204" s="1"/>
+      <c r="AW204" s="1"/>
+      <c r="AX204" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/JYX2/Configs/Lua小宝商店.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/Lua小宝商店.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B8672C-1F02-48F4-AC63-46D76A166A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF76F40F-208F-4EE3-BAD0-18A3D6AA344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5810" yWindow="2600" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -23,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>ShopItems</t>
   </si>
   <si>
     <t>Trigger</t>
@@ -67,6 +64,10 @@
     <t>L_number,L_number,L_number[]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>ShopItems-Id,Count,Price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -89,11 +90,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -138,12 +141,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,7 +505,7 @@
   <dimension ref="A1:AX204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -509,21 +515,21 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -560,13 +566,13 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -605,11 +611,11 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
@@ -617,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>16</v>
@@ -660,7 +666,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>14</v>
@@ -703,7 +709,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>20</v>
@@ -746,7 +752,7 @@
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>12</v>
@@ -789,7 +795,7 @@
         <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>9</v>
